--- a/classfiers/chain/welm/chain_welm_rbf_results.xlsx
+++ b/classfiers/chain/welm/chain_welm_rbf_results.xlsx
@@ -465,7 +465,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>0.9742489270386266</v>
+        <v>0.9248826291079812</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -474,7 +474,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0.473568281938326</v>
+        <v>0.4619289340101523</v>
       </c>
     </row>
     <row r="3">
@@ -482,7 +482,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>0.9914163090128756</v>
+        <v>0.9530516431924883</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -491,7 +491,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>0.4632034632034632</v>
+        <v>0.4630541871921182</v>
       </c>
     </row>
     <row r="4">
@@ -499,7 +499,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>0.9914163090128756</v>
+        <v>0.9292452830188679</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -508,7 +508,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0.4567099567099567</v>
+        <v>0.6027072758037225</v>
       </c>
     </row>
     <row r="5">
@@ -516,7 +516,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>0.9870689655172413</v>
+        <v>0.9528301886792453</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -525,7 +525,7 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0.4606986899563319</v>
+        <v>0.5967821782178219</v>
       </c>
     </row>
     <row r="6">
@@ -533,7 +533,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>0.9870689655172413</v>
+        <v>0.9433962264150944</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
@@ -542,7 +542,7 @@
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>0.5</v>
+        <v>0.5575</v>
       </c>
     </row>
     <row r="7">
@@ -552,7 +552,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.9862438952197721</v>
+        <v>0.9406811940827353</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -561,7 +561,7 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0.4708360783616156</v>
+        <v>0.5363945150447631</v>
       </c>
     </row>
   </sheetData>
